--- a/aplicación/compañias_bmv.xlsx
+++ b/aplicación/compañias_bmv.xlsx
@@ -16,10 +16,1513 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1009">
   <si>
+    <t>Company</t>
+  </si>
+  <si>
     <t>Symbol</t>
   </si>
   <si>
-    <t>Company</t>
+    <t>3D Systems</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>AGNC Investment Corp</t>
+  </si>
+  <si>
+    <t>ALPEK</t>
+  </si>
+  <si>
+    <t>AMC ENTERTAINMENT HOLDINGS INC</t>
+  </si>
+  <si>
+    <t>AMC Entertainment Holdings</t>
+  </si>
+  <si>
+    <t>AMETEK</t>
+  </si>
+  <si>
+    <t>AMN Healthcare Services</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>AS ABLOY AB (publ)</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>AbbVie</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>Accelerate Diagnostics</t>
+  </si>
+  <si>
+    <t>Activision Blizzard</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices</t>
+  </si>
+  <si>
+    <t>Affirm Holdings</t>
+  </si>
+  <si>
+    <t>Air Products and Chemicals</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Albemarle</t>
+  </si>
+  <si>
+    <t>Alcoa</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>Alibaba Group Holding Limited</t>
+  </si>
+  <si>
+    <t>Align Technology</t>
+  </si>
+  <si>
+    <t>Ally Financial</t>
+  </si>
+  <si>
+    <t>Almaden Minerals Ltd</t>
+  </si>
+  <si>
+    <t>Alnylam Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>Alsea</t>
+  </si>
+  <si>
+    <t>Altimmune</t>
+  </si>
+  <si>
+    <t>Altria Group</t>
+  </si>
+  <si>
+    <t>Aluminum  of China Limited</t>
+  </si>
+  <si>
+    <t>Amazoncom</t>
+  </si>
+  <si>
+    <t>Ambev</t>
+  </si>
+  <si>
+    <t>American Airlines Group</t>
+  </si>
+  <si>
+    <t>American Electric Power</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>American International Group</t>
+  </si>
+  <si>
+    <t>American Tower</t>
+  </si>
+  <si>
+    <t>American Water Works</t>
+  </si>
+  <si>
+    <t>Amgen</t>
+  </si>
+  <si>
+    <t>Amyris</t>
+  </si>
+  <si>
+    <t>América Móvil</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Applied Materials</t>
+  </si>
+  <si>
+    <t>Arca Continental</t>
+  </si>
+  <si>
+    <t>Archer-Daniels-Midland</t>
+  </si>
+  <si>
+    <t>Arista Networks</t>
+  </si>
+  <si>
+    <t>AstraZeneca PLC</t>
+  </si>
+  <si>
+    <t>Aterian</t>
+  </si>
+  <si>
+    <t>Atossa Therapeutics</t>
+  </si>
+  <si>
+    <t>AutoZone</t>
+  </si>
+  <si>
+    <t>Avis Budget Group</t>
+  </si>
+  <si>
+    <t>Axcelis Technologies</t>
+  </si>
+  <si>
+    <t>Axtel</t>
+  </si>
+  <si>
+    <t>BHP Group Limited</t>
+  </si>
+  <si>
+    <t>BP plc</t>
+  </si>
+  <si>
+    <t>BRF</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Banco Bilbao Vizcaya Argentaria</t>
+  </si>
+  <si>
+    <t>Banco Santander México  Institución de Banca Múltiple Grupo Financiero Santander México</t>
+  </si>
+  <si>
+    <t>Banco Santander</t>
+  </si>
+  <si>
+    <t>Banco del Bajío  Institución de Banca Múltiple</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Barclays PLC</t>
+  </si>
+  <si>
+    <t>Bayer Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>Bayerische Motoren Werke Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>Becle</t>
+  </si>
+  <si>
+    <t>Becton Dickinson and</t>
+  </si>
+  <si>
+    <t>Bed Bath &amp; Beyond</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
+    <t>Beyond Meat</t>
+  </si>
+  <si>
+    <t>Bionano Genomics</t>
+  </si>
+  <si>
+    <t>BlackRock</t>
+  </si>
+  <si>
+    <t>Blackstone</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Bolloré SE</t>
+  </si>
+  <si>
+    <t>Bolsa Mexicana de Valores</t>
+  </si>
+  <si>
+    <t>Booking Holdings</t>
+  </si>
+  <si>
+    <t>Bristol-Myers Squibb</t>
+  </si>
+  <si>
+    <t>Builders FirstSource</t>
+  </si>
+  <si>
+    <t>Bunge Limited</t>
+  </si>
+  <si>
+    <t>CBRE Group</t>
+  </si>
+  <si>
+    <t>CEMEX</t>
+  </si>
+  <si>
+    <t>CEVA</t>
+  </si>
+  <si>
+    <t>CF Industries Holdings</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CVS Health</t>
+  </si>
+  <si>
+    <t>Callon Petroleum</t>
+  </si>
+  <si>
+    <t>Cassava Sciences</t>
+  </si>
+  <si>
+    <t>Catalent</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>Centene</t>
+  </si>
+  <si>
+    <t>Centennial Resource Development</t>
+  </si>
+  <si>
+    <t>Cheniere Energy</t>
+  </si>
+  <si>
+    <t>Chevron</t>
+  </si>
+  <si>
+    <t>Chewy</t>
+  </si>
+  <si>
+    <t>China Life Insurance  Limited</t>
+  </si>
+  <si>
+    <t>China Petroleum &amp; Chemical</t>
+  </si>
+  <si>
+    <t>Chipotle Mexican Grill</t>
+  </si>
+  <si>
+    <t>Chord Energy</t>
+  </si>
+  <si>
+    <t>Cinemark Holdings</t>
+  </si>
+  <si>
+    <t>Cisco Systems</t>
+  </si>
+  <si>
+    <t>Citigroup</t>
+  </si>
+  <si>
+    <t>Cleveland-Cliffs</t>
+  </si>
+  <si>
+    <t>Cloudflare</t>
+  </si>
+  <si>
+    <t>Coca-Cola FEM</t>
+  </si>
+  <si>
+    <t>Coinbase Global</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>Companhia Energética de Minas Gerais</t>
+  </si>
+  <si>
+    <t>Compañía Minera Autlán</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>Consorcio ARA</t>
+  </si>
+  <si>
+    <t>Constellation Brands</t>
+  </si>
+  <si>
+    <t>ContextLogic</t>
+  </si>
+  <si>
+    <t>Controladora Vuela Compañía de Aviación</t>
+  </si>
+  <si>
+    <t>Corning orporated</t>
+  </si>
+  <si>
+    <t>Corporación Actinver</t>
+  </si>
+  <si>
+    <t>Corporación Inmobiliaria Vesta</t>
+  </si>
+  <si>
+    <t>Corporación Moctezuma</t>
+  </si>
+  <si>
+    <t>Corporativo Fragua</t>
+  </si>
+  <si>
+    <t>Corporativo GBM</t>
+  </si>
+  <si>
+    <t>Corpovael</t>
+  </si>
+  <si>
+    <t>Costco Wholesale</t>
+  </si>
+  <si>
+    <t>Crocs</t>
+  </si>
+  <si>
+    <t>CrowdStrike Holdings</t>
+  </si>
+  <si>
+    <t>Cummins</t>
+  </si>
+  <si>
+    <t>Cydsa</t>
+  </si>
+  <si>
+    <t>DINE</t>
+  </si>
+  <si>
+    <t>DSV A/S</t>
+  </si>
+  <si>
+    <t>Danone</t>
+  </si>
+  <si>
+    <t>Darling Ingredients</t>
+  </si>
+  <si>
+    <t>Datadog</t>
+  </si>
+  <si>
+    <t>Deere &amp;</t>
+  </si>
+  <si>
+    <t>Dell Technologies</t>
+  </si>
+  <si>
+    <t>Delta Air Lines</t>
+  </si>
+  <si>
+    <t>Desarrolladora Homex</t>
+  </si>
+  <si>
+    <t>Devon Energy</t>
+  </si>
+  <si>
+    <t>Diamondback Energy</t>
+  </si>
+  <si>
+    <t>DocuSign</t>
+  </si>
+  <si>
+    <t>Dollar General</t>
+  </si>
+  <si>
+    <t>Dollar Tree</t>
+  </si>
+  <si>
+    <t>Domino's Pizza</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>DuPont de Nemours</t>
+  </si>
+  <si>
+    <t>EOG Resources</t>
+  </si>
+  <si>
+    <t>EPAM Systems</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
+    <t>ESGMEX</t>
+  </si>
+  <si>
+    <t>Ecolab</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences</t>
+  </si>
+  <si>
+    <t>El Puerto de Liverpool</t>
+  </si>
+  <si>
+    <t>Electronic Arts</t>
+  </si>
+  <si>
+    <t>Eli Lilly and</t>
+  </si>
+  <si>
+    <t>Energy Transfer LP</t>
+  </si>
+  <si>
+    <t>Enphase Energy</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>Exxon Mobil</t>
+  </si>
+  <si>
+    <t>FIBRA Macquarie México</t>
+  </si>
+  <si>
+    <t>FIBRA Prologis</t>
+  </si>
+  <si>
+    <t>Fastly</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Fibra Danhos</t>
+  </si>
+  <si>
+    <t>Fibra Inn</t>
+  </si>
+  <si>
+    <t>Fibra Mty PI</t>
+  </si>
+  <si>
+    <t>Fibra Plus</t>
+  </si>
+  <si>
+    <t>Fibra Shop</t>
+  </si>
+  <si>
+    <t>Fibra Terrafina</t>
+  </si>
+  <si>
+    <t>Fibra UNO</t>
+  </si>
+  <si>
+    <t>Fibra Upsite</t>
+  </si>
+  <si>
+    <t>FibraHotel</t>
+  </si>
+  <si>
+    <t>Fideicomiso Irrevocable F/2061 FHipo</t>
+  </si>
+  <si>
+    <t>Fideicomiso Irrevocable No F/1523</t>
+  </si>
+  <si>
+    <t>Fideicomiso Irrevocable No F/3277 en Banco Invex S A Institución de Banca Múltiple INVEX Grupo</t>
+  </si>
+  <si>
+    <t>Fidelity National Information Services</t>
+  </si>
+  <si>
+    <t>Financiera Independencia   SOFOM ENR</t>
+  </si>
+  <si>
+    <t>First Solar</t>
+  </si>
+  <si>
+    <t>Fiserv</t>
+  </si>
+  <si>
+    <t>Fomento Económico Mexicano</t>
+  </si>
+  <si>
+    <t>Fondo Alterna</t>
+  </si>
+  <si>
+    <t>Foot Locker</t>
+  </si>
+  <si>
+    <t>Ford Motor</t>
+  </si>
+  <si>
+    <t>Fortinet</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan</t>
+  </si>
+  <si>
+    <t>Fresenius SE &amp; Co KGaA</t>
+  </si>
+  <si>
+    <t>Frontera Energy</t>
+  </si>
+  <si>
+    <t>FuelCell Energy</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GMéxico Transportes</t>
+  </si>
+  <si>
+    <t>GSK plc</t>
+  </si>
+  <si>
+    <t>GameStop Corp</t>
+  </si>
+  <si>
+    <t>Generac Holdings</t>
+  </si>
+  <si>
+    <t>General Electric</t>
+  </si>
+  <si>
+    <t>General Mills</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>Genomma Lab Internacional</t>
+  </si>
+  <si>
+    <t>Gentera</t>
+  </si>
+  <si>
+    <t>Genworth Financial</t>
+  </si>
+  <si>
+    <t>Gerdau</t>
+  </si>
+  <si>
+    <t>Gevo</t>
+  </si>
+  <si>
+    <t>Gilead Sciences</t>
+  </si>
+  <si>
+    <t>Global Payments</t>
+  </si>
+  <si>
+    <t>Goldgroup Mining</t>
+  </si>
+  <si>
+    <t>Gruma</t>
+  </si>
+  <si>
+    <t>Grupo Aeroméxico</t>
+  </si>
+  <si>
+    <t>Grupo Aeroportuario del Centro Norte</t>
+  </si>
+  <si>
+    <t>Grupo Aeroportuario del Pacífico</t>
+  </si>
+  <si>
+    <t>Grupo Aeroportuario del Sureste</t>
+  </si>
+  <si>
+    <t>Grupo Bafar</t>
+  </si>
+  <si>
+    <t>Grupo Bimbo</t>
+  </si>
+  <si>
+    <t>Grupo Carso</t>
+  </si>
+  <si>
+    <t>Grupo Comercial Chedraui</t>
+  </si>
+  <si>
+    <t>Grupo Elektra</t>
+  </si>
+  <si>
+    <t>Grupo Famsa</t>
+  </si>
+  <si>
+    <t>Grupo Financiero Banorte</t>
+  </si>
+  <si>
+    <t>Grupo Financiero Inbursa</t>
+  </si>
+  <si>
+    <t>Grupo Gicsa</t>
+  </si>
+  <si>
+    <t>Grupo Gigante</t>
+  </si>
+  <si>
+    <t>Grupo Herdez</t>
+  </si>
+  <si>
+    <t>Grupo Hotelero Santa Fe</t>
+  </si>
+  <si>
+    <t>Grupo Industrial Saltillo</t>
+  </si>
+  <si>
+    <t>Grupo KUO</t>
+  </si>
+  <si>
+    <t>Grupo Lala</t>
+  </si>
+  <si>
+    <t>Grupo Lamosa</t>
+  </si>
+  <si>
+    <t>Grupo Mexicano de Desarrollo</t>
+  </si>
+  <si>
+    <t>Grupo Minsa</t>
+  </si>
+  <si>
+    <t>Grupo México</t>
+  </si>
+  <si>
+    <t>Grupo Pochteca</t>
+  </si>
+  <si>
+    <t>Grupo Posadas</t>
+  </si>
+  <si>
+    <t>Grupo Profuturo</t>
+  </si>
+  <si>
+    <t>Grupo Rotoplas</t>
+  </si>
+  <si>
+    <t>Grupo Sanborns</t>
+  </si>
+  <si>
+    <t>Grupo Simec</t>
+  </si>
+  <si>
+    <t>Grupo Sports World</t>
+  </si>
+  <si>
+    <t>Grupo TMM</t>
+  </si>
+  <si>
+    <t>Grupo Televisa</t>
+  </si>
+  <si>
+    <t>Grupo Traxión</t>
+  </si>
+  <si>
+    <t>Grupo Vasconia</t>
+  </si>
+  <si>
+    <t>HASHICORP INC</t>
+  </si>
+  <si>
+    <t>HCA Healthcare</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Halliburton</t>
+  </si>
+  <si>
+    <t>Hertz Global Holdings</t>
+  </si>
+  <si>
+    <t>Hilton Worldwide Holdings</t>
+  </si>
+  <si>
+    <t>Honda Motor Co Ltd</t>
+  </si>
+  <si>
+    <t>Honeywell International</t>
+  </si>
+  <si>
+    <t>Hoteles City Express</t>
+  </si>
+  <si>
+    <t>HubSpot</t>
+  </si>
+  <si>
+    <t>IDEX</t>
+  </si>
+  <si>
+    <t>IDEXX Laboratories</t>
+  </si>
+  <si>
+    <t>INVEX Controladora</t>
+  </si>
+  <si>
+    <t>IQVIA Holdings</t>
+  </si>
+  <si>
+    <t>Iberdrola</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works</t>
+  </si>
+  <si>
+    <t>Imperial Brands PLC</t>
+  </si>
+  <si>
+    <t>Industrias Bachoco</t>
+  </si>
+  <si>
+    <t>Industrias CH</t>
+  </si>
+  <si>
+    <t>Industrias Peñoles</t>
+  </si>
+  <si>
+    <t>Ingredion orporated</t>
+  </si>
+  <si>
+    <t>Inovio Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Intercontinental Exchange</t>
+  </si>
+  <si>
+    <t>Internacional de Cerámica</t>
+  </si>
+  <si>
+    <t>International Business Machines</t>
+  </si>
+  <si>
+    <t>Intesa Sanpaolo SpA</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical</t>
+  </si>
+  <si>
+    <t>Invitae</t>
+  </si>
+  <si>
+    <t>JDcom</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co</t>
+  </si>
+  <si>
+    <t>JetBlue Airways</t>
+  </si>
+  <si>
+    <t>JinkoSolar Holding Co Ltd</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Kellogg</t>
+  </si>
+  <si>
+    <t>Kimberly-Clark de México</t>
+  </si>
+  <si>
+    <t>Kinder Morgan</t>
+  </si>
+  <si>
+    <t>Kohl's</t>
+  </si>
+  <si>
+    <t>Krispy Kreme</t>
+  </si>
+  <si>
+    <t>Kyndryl Holdings</t>
+  </si>
+  <si>
+    <t>L'Oréal</t>
+  </si>
+  <si>
+    <t>LVMH Moët Hennessy - Louis Vuitton Société Européenne</t>
+  </si>
+  <si>
+    <t>La Comer</t>
+  </si>
+  <si>
+    <t>Laboratory  of America Holdings</t>
+  </si>
+  <si>
+    <t>Lam Research</t>
+  </si>
+  <si>
+    <t>Las Vegas Sands Corp</t>
+  </si>
+  <si>
+    <t>Lemonade</t>
+  </si>
+  <si>
+    <t>Liberty Global plc</t>
+  </si>
+  <si>
+    <t>Live Nation Entertainment</t>
+  </si>
+  <si>
+    <t>Lloyds Banking Group plc</t>
+  </si>
+  <si>
+    <t>Lowe's Companies</t>
+  </si>
+  <si>
+    <t>Lucid Group</t>
+  </si>
+  <si>
+    <t>Lumen Technologies</t>
+  </si>
+  <si>
+    <t>Lumentum Holdings</t>
+  </si>
+  <si>
+    <t>Luminar Technologies</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>MGM Resorts International</t>
+  </si>
+  <si>
+    <t>MTU Aero Engines AG</t>
+  </si>
+  <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>Marathon Digital Holdings</t>
+  </si>
+  <si>
+    <t>Marathon Oil</t>
+  </si>
+  <si>
+    <t>Marathon Petroleum</t>
+  </si>
+  <si>
+    <t>Marinus Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Marvell Technology</t>
+  </si>
+  <si>
+    <t>Mastercard orporated</t>
+  </si>
+  <si>
+    <t>Mattel</t>
+  </si>
+  <si>
+    <t>Matterport</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
+    <t>McKesson</t>
+  </si>
+  <si>
+    <t>Medical Properties Trust</t>
+  </si>
+  <si>
+    <t>Megacable Holdings</t>
+  </si>
+  <si>
+    <t>MercadoLibre</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co</t>
+  </si>
+  <si>
+    <t>Meta Platforms</t>
+  </si>
+  <si>
+    <t>MicroStrategy orporated</t>
+  </si>
+  <si>
+    <t>Micron Technology</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Minera Frisco</t>
+  </si>
+  <si>
+    <t>Moderna</t>
+  </si>
+  <si>
+    <t>Monex</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Monster Beverage</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Médica Sur</t>
+  </si>
+  <si>
+    <t>NIKE</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Nemak</t>
+  </si>
+  <si>
+    <t>Nestlé</t>
+  </si>
+  <si>
+    <t>NetEase</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>New Oriental Education &amp; Technology Group</t>
+  </si>
+  <si>
+    <t>Newmont</t>
+  </si>
+  <si>
+    <t>NextEra Energy</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Nokia Oyj</t>
+  </si>
+  <si>
+    <t>Nomad Foods Limited</t>
+  </si>
+  <si>
+    <t>Nordstrom</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>Norwegian Cruise Line Holdings Ltd</t>
+  </si>
+  <si>
+    <t>Novavax</t>
+  </si>
+  <si>
+    <t>Novo Nordisk A/S</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>Obrascón Huarte Lain</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum</t>
+  </si>
+  <si>
+    <t>Ocugen</t>
+  </si>
+  <si>
+    <t>Operadora de Sites Mexicanos</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Orbia Advance</t>
+  </si>
+  <si>
+    <t>Organización Cultiba</t>
+  </si>
+  <si>
+    <t>Organización Soriana</t>
+  </si>
+  <si>
+    <t>Otis Worldwide</t>
+  </si>
+  <si>
+    <t>PBF Energy</t>
+  </si>
+  <si>
+    <t>Palo Alto Networks</t>
+  </si>
+  <si>
+    <t>Paramount Global</t>
+  </si>
+  <si>
+    <t>Parker-Hannifin</t>
+  </si>
+  <si>
+    <t>PayPal Holdings</t>
+  </si>
+  <si>
+    <t>Peloton Interactive</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>PetroChina  Limited</t>
+  </si>
+  <si>
+    <t>Petróleo Brasileiro  - Petrobras</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>Philip Morris International</t>
+  </si>
+  <si>
+    <t>Ping An Insurance (Group)  of China Ltd</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Pioneer Natural Resources</t>
+  </si>
+  <si>
+    <t>Plug Power</t>
+  </si>
+  <si>
+    <t>Prologis</t>
+  </si>
+  <si>
+    <t>Promotora Ambiental</t>
+  </si>
+  <si>
+    <t>Promotora y Operadora de Infraestructura</t>
+  </si>
+  <si>
+    <t>Proyectos Inmobiliarios Carne Mart</t>
+  </si>
+  <si>
+    <t>PulteGroup</t>
+  </si>
+  <si>
+    <t>QUALCOMM orporated</t>
+  </si>
+  <si>
+    <t>Qualys</t>
+  </si>
+  <si>
+    <t>QuantumScape</t>
+  </si>
+  <si>
+    <t>Quálitas Controladora</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>RLH Properties</t>
+  </si>
+  <si>
+    <t>Realty ome</t>
+  </si>
+  <si>
+    <t>Regeneron Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>Revlon</t>
+  </si>
+  <si>
+    <t>Revolve Group</t>
+  </si>
+  <si>
+    <t>Rio Tinto Group</t>
+  </si>
+  <si>
+    <t>Riot Blockchain</t>
+  </si>
+  <si>
+    <t>Rivian Automotive</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>Roche Holding AG</t>
+  </si>
+  <si>
+    <t>Roku</t>
+  </si>
+  <si>
+    <t>Ross Stores</t>
+  </si>
+  <si>
+    <t>Royal Caribbean Cruises Ltd</t>
+  </si>
+  <si>
+    <t>S&amp;P Global</t>
+  </si>
+  <si>
+    <t>P SE</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Samsung Electronics Co Ltd</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Schlumberger Limited</t>
+  </si>
+  <si>
+    <t>Sempra</t>
+  </si>
+  <si>
+    <t>Service  International</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>ShockWave Medical</t>
+  </si>
+  <si>
+    <t>Silvergate Capital</t>
+  </si>
+  <si>
+    <t>Simon Property Group</t>
+  </si>
+  <si>
+    <t>Skillz</t>
+  </si>
+  <si>
+    <t>SmileDirectClub</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>SoFi Technologies</t>
+  </si>
+  <si>
+    <t>Société Générale Société anonyme</t>
+  </si>
+  <si>
+    <t>Southern Copper</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Starwood Property Trust</t>
+  </si>
+  <si>
+    <t>Steel Dynamics</t>
+  </si>
+  <si>
+    <t>Sunrun</t>
+  </si>
+  <si>
+    <t>T-Mobile US</t>
+  </si>
+  <si>
+    <t>TV Azteca</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor Manufacturing  Limited</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Teladoc Health</t>
+  </si>
+  <si>
+    <t>Tencent Holdings Limited</t>
+  </si>
+  <si>
+    <t>Teradyne</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Teva Pharmaceutical Industries Limited</t>
+  </si>
+  <si>
+    <t>The AES</t>
+  </si>
+  <si>
+    <t>The Bank of Nova Scotia</t>
+  </si>
+  <si>
+    <t>The Boeing</t>
+  </si>
+  <si>
+    <t>The Boston Beer</t>
+  </si>
+  <si>
+    <t>The Chemours</t>
+  </si>
+  <si>
+    <t>The Clorox</t>
+  </si>
+  <si>
+    <t>The Coca-Cola</t>
+  </si>
+  <si>
+    <t>The Estée Lauder Companies</t>
+  </si>
+  <si>
+    <t>The GEO Group</t>
+  </si>
+  <si>
+    <t>The Gap</t>
+  </si>
+  <si>
+    <t>The Goldman Sachs Group</t>
+  </si>
+  <si>
+    <t>The Goodyear Tire &amp; Rubber</t>
+  </si>
+  <si>
+    <t>The Home Depot</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz</t>
+  </si>
+  <si>
+    <t>The Mosaic</t>
+  </si>
+  <si>
+    <t>The Procter &amp; Gamble</t>
+  </si>
+  <si>
+    <t>The TJX Companies</t>
+  </si>
+  <si>
+    <t>The Trade Desk</t>
+  </si>
+  <si>
+    <t>The Walt Disney</t>
+  </si>
+  <si>
+    <t>The Western Union</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>Truist Financial</t>
+  </si>
+  <si>
+    <t>Twilio</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Tyson Foods</t>
+  </si>
+  <si>
+    <t>UDEMY INC</t>
+  </si>
+  <si>
+    <t>Uber Technologies</t>
+  </si>
+  <si>
+    <t>Ubisoft Entertainment</t>
+  </si>
+  <si>
+    <t>Ulta Beauty</t>
+  </si>
+  <si>
+    <t>Under Armour</t>
+  </si>
+  <si>
+    <t>Unifin Financiera</t>
+  </si>
+  <si>
+    <t>Unilever PLC</t>
+  </si>
+  <si>
+    <t>Union Pacific</t>
+  </si>
+  <si>
+    <t>United Airlines Holdings</t>
+  </si>
+  <si>
+    <t>United States Steel</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group orporated</t>
+  </si>
+  <si>
+    <t>Unity Software</t>
+  </si>
+  <si>
+    <t>Upstart Holdings</t>
+  </si>
+  <si>
+    <t>VICI Properties</t>
+  </si>
+  <si>
+    <t>VMware</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>Valero Energy</t>
+  </si>
+  <si>
+    <t>Value Grupo Financiero</t>
+  </si>
+  <si>
+    <t>Verizon Communications</t>
+  </si>
+  <si>
+    <t>Vertex Pharmaceuticals orporated</t>
+  </si>
+  <si>
+    <t>Vinte Viviendas Integrales</t>
+  </si>
+  <si>
+    <t>Vipshop Holdings Limited</t>
+  </si>
+  <si>
+    <t>Virgin Galactic Holdings</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Vista Energy</t>
+  </si>
+  <si>
+    <t>Vitro</t>
+  </si>
+  <si>
+    <t>Volkswagen AG</t>
+  </si>
+  <si>
+    <t>Vroom</t>
+  </si>
+  <si>
+    <t>Wal-Mart de México</t>
+  </si>
+  <si>
+    <t>Walgreens Boots Alliance</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Warner Bros Discovery</t>
+  </si>
+  <si>
+    <t>WeWork</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp;</t>
+  </si>
+  <si>
+    <t>Weyerhaeuser</t>
+  </si>
+  <si>
+    <t>Williams-Sonoma</t>
+  </si>
+  <si>
+    <t>Workhorse Group</t>
+  </si>
+  <si>
+    <t>Wynn Resorts Limited</t>
+  </si>
+  <si>
+    <t>Xcel Energy</t>
+  </si>
+  <si>
+    <t>YPF Sociedad Anónima</t>
+  </si>
+  <si>
+    <t>Yum China Holdings</t>
+  </si>
+  <si>
+    <t>Zendesk</t>
+  </si>
+  <si>
+    <t>Zimmer Biomet Holdings</t>
+  </si>
+  <si>
+    <t>Zoom Video Communications</t>
+  </si>
+  <si>
+    <t>bluebird bio</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>eXp World Holdings</t>
+  </si>
+  <si>
+    <t>fuboTV</t>
   </si>
   <si>
     <t>DDD.MX</t>
@@ -1538,1509 +3041,6 @@
   </si>
   <si>
     <t>FUBO.MX</t>
-  </si>
-  <si>
-    <t>3D Systems Corporation</t>
-  </si>
-  <si>
-    <t>3M Company</t>
-  </si>
-  <si>
-    <t>AGNC Investment Corp.</t>
-  </si>
-  <si>
-    <t>ALPEK, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>AMC ENTERTAINMENT HOLDINGS INC</t>
-  </si>
-  <si>
-    <t>AMC Entertainment Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>AMETEK, Inc.</t>
-  </si>
-  <si>
-    <t>AMN Healthcare Services, Inc.</t>
-  </si>
-  <si>
-    <t>APA Corporation</t>
-  </si>
-  <si>
-    <t>ASSA ABLOY AB (publ)</t>
-  </si>
-  <si>
-    <t>AT&amp;T Inc.</t>
-  </si>
-  <si>
-    <t>AbbVie Inc.</t>
-  </si>
-  <si>
-    <t>Abbott Laboratories</t>
-  </si>
-  <si>
-    <t>Accelerate Diagnostics, Inc.</t>
-  </si>
-  <si>
-    <t>Activision Blizzard, Inc.</t>
-  </si>
-  <si>
-    <t>Adobe Inc.</t>
-  </si>
-  <si>
-    <t>Advanced Micro Devices, Inc.</t>
-  </si>
-  <si>
-    <t>Affirm Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Air Products and Chemicals, Inc.</t>
-  </si>
-  <si>
-    <t>Airbnb, Inc.</t>
-  </si>
-  <si>
-    <t>Albemarle Corporation</t>
-  </si>
-  <si>
-    <t>Alcoa Corporation</t>
-  </si>
-  <si>
-    <t>Alfa, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Alibaba Group Holding Limited</t>
-  </si>
-  <si>
-    <t>Align Technology, Inc.</t>
-  </si>
-  <si>
-    <t>Ally Financial Inc.</t>
-  </si>
-  <si>
-    <t>Almaden Minerals Ltd.</t>
-  </si>
-  <si>
-    <t>Alnylam Pharmaceuticals, Inc.</t>
-  </si>
-  <si>
-    <t>Alphabet Inc.</t>
-  </si>
-  <si>
-    <t>Alsea, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Altimmune, Inc.</t>
-  </si>
-  <si>
-    <t>Altria Group, Inc.</t>
-  </si>
-  <si>
-    <t>Aluminum Corporation of China Limited</t>
-  </si>
-  <si>
-    <t>Amazon.com, Inc.</t>
-  </si>
-  <si>
-    <t>Ambev S.A.</t>
-  </si>
-  <si>
-    <t>American Airlines Group Inc.</t>
-  </si>
-  <si>
-    <t>American Electric Power Company, Inc.</t>
-  </si>
-  <si>
-    <t>American Express Company</t>
-  </si>
-  <si>
-    <t>American International Group, Inc.</t>
-  </si>
-  <si>
-    <t>American Tower Corporation</t>
-  </si>
-  <si>
-    <t>American Water Works Company, Inc.</t>
-  </si>
-  <si>
-    <t>Amgen Inc.</t>
-  </si>
-  <si>
-    <t>Amyris, Inc.</t>
-  </si>
-  <si>
-    <t>América Móvil, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Analog Devices, Inc.</t>
-  </si>
-  <si>
-    <t>Apple Inc.</t>
-  </si>
-  <si>
-    <t>Applied Materials, Inc.</t>
-  </si>
-  <si>
-    <t>Arca Continental, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Archer-Daniels-Midland Company</t>
-  </si>
-  <si>
-    <t>Arista Networks, Inc.</t>
-  </si>
-  <si>
-    <t>AstraZeneca PLC</t>
-  </si>
-  <si>
-    <t>Aterian, Inc.</t>
-  </si>
-  <si>
-    <t>Atossa Therapeutics, Inc.</t>
-  </si>
-  <si>
-    <t>AutoZone, Inc.</t>
-  </si>
-  <si>
-    <t>Avis Budget Group, Inc.</t>
-  </si>
-  <si>
-    <t>Axcelis Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Axtel, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>BHP Group Limited</t>
-  </si>
-  <si>
-    <t>BP p.l.c.</t>
-  </si>
-  <si>
-    <t>BRF S.A.</t>
-  </si>
-  <si>
-    <t>Baidu, Inc.</t>
-  </si>
-  <si>
-    <t>Banco Bilbao Vizcaya Argentaria, S.A.</t>
-  </si>
-  <si>
-    <t>Banco Santander México, S.A., Institución de Banca Múltiple, Grupo Financiero Santander México</t>
-  </si>
-  <si>
-    <t>Banco Santander, S.A.</t>
-  </si>
-  <si>
-    <t>Banco del Bajío, S.A., Institución de Banca Múltiple</t>
-  </si>
-  <si>
-    <t>Bank of America Corporation</t>
-  </si>
-  <si>
-    <t>Barclays PLC</t>
-  </si>
-  <si>
-    <t>Bayer Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Bayerische Motoren Werke Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Becle, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Becton, Dickinson and Company</t>
-  </si>
-  <si>
-    <t>Bed Bath &amp; Beyond Inc.</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway Inc.</t>
-  </si>
-  <si>
-    <t>Beyond Meat, Inc.</t>
-  </si>
-  <si>
-    <t>Bionano Genomics, Inc.</t>
-  </si>
-  <si>
-    <t>BlackRock, Inc.</t>
-  </si>
-  <si>
-    <t>Blackstone Inc.</t>
-  </si>
-  <si>
-    <t>Block, Inc.</t>
-  </si>
-  <si>
-    <t>Bolloré SE</t>
-  </si>
-  <si>
-    <t>Bolsa Mexicana de Valores, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Booking Holdings Inc.</t>
-  </si>
-  <si>
-    <t>Bristol-Myers Squibb Company</t>
-  </si>
-  <si>
-    <t>Builders FirstSource, Inc.</t>
-  </si>
-  <si>
-    <t>Bunge Limited</t>
-  </si>
-  <si>
-    <t>CBRE Group, Inc.</t>
-  </si>
-  <si>
-    <t>CEMEX, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>CEVA, Inc.</t>
-  </si>
-  <si>
-    <t>CF Industries Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>CMR, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>CVS Health Corporation</t>
-  </si>
-  <si>
-    <t>Callon Petroleum Company</t>
-  </si>
-  <si>
-    <t>Cassava Sciences, Inc.</t>
-  </si>
-  <si>
-    <t>Catalent, Inc.</t>
-  </si>
-  <si>
-    <t>Caterpillar Inc.</t>
-  </si>
-  <si>
-    <t>Centene Corporation</t>
-  </si>
-  <si>
-    <t>Centennial Resource Development, Inc.</t>
-  </si>
-  <si>
-    <t>Cheniere Energy, Inc.</t>
-  </si>
-  <si>
-    <t>Chevron Corporation</t>
-  </si>
-  <si>
-    <t>Chewy, Inc.</t>
-  </si>
-  <si>
-    <t>China Life Insurance Company Limited</t>
-  </si>
-  <si>
-    <t>China Petroleum &amp; Chemical Corporation</t>
-  </si>
-  <si>
-    <t>Chipotle Mexican Grill, Inc.</t>
-  </si>
-  <si>
-    <t>Chord Energy Corporation</t>
-  </si>
-  <si>
-    <t>Cinemark Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Cisco Systems, Inc.</t>
-  </si>
-  <si>
-    <t>Citigroup Inc.</t>
-  </si>
-  <si>
-    <t>Cleveland-Cliffs Inc.</t>
-  </si>
-  <si>
-    <t>Cloudflare, Inc.</t>
-  </si>
-  <si>
-    <t>Coca-Cola FEMSA, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Coinbase Global, Inc.</t>
-  </si>
-  <si>
-    <t>Colgate-Palmolive Company</t>
-  </si>
-  <si>
-    <t>Comcast Corporation</t>
-  </si>
-  <si>
-    <t>Companhia Energética de Minas Gerais</t>
-  </si>
-  <si>
-    <t>Compañía Minera Autlán, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>ConocoPhillips</t>
-  </si>
-  <si>
-    <t>Consorcio ARA, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Constellation Brands, Inc.</t>
-  </si>
-  <si>
-    <t>ContextLogic Inc.</t>
-  </si>
-  <si>
-    <t>Controladora Vuela Compañía de Aviación, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Corning Incorporated</t>
-  </si>
-  <si>
-    <t>Corporación Actinver, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Corporación Inmobiliaria Vesta, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Corporación Moctezuma, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Corporativo Fragua, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Corporativo GBM, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Corpovael, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Costco Wholesale Corporation</t>
-  </si>
-  <si>
-    <t>Crocs, Inc.</t>
-  </si>
-  <si>
-    <t>CrowdStrike Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Cummins Inc.</t>
-  </si>
-  <si>
-    <t>Cydsa, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>DINE, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>DSV A/S</t>
-  </si>
-  <si>
-    <t>Danone S.A.</t>
-  </si>
-  <si>
-    <t>Darling Ingredients Inc.</t>
-  </si>
-  <si>
-    <t>Datadog, Inc.</t>
-  </si>
-  <si>
-    <t>Deere &amp; Company</t>
-  </si>
-  <si>
-    <t>Dell Technologies Inc.</t>
-  </si>
-  <si>
-    <t>Delta Air Lines, Inc.</t>
-  </si>
-  <si>
-    <t>Desarrolladora Homex, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Devon Energy Corporation</t>
-  </si>
-  <si>
-    <t>Diamondback Energy, Inc.</t>
-  </si>
-  <si>
-    <t>DocuSign, Inc.</t>
-  </si>
-  <si>
-    <t>Dollar General Corporation</t>
-  </si>
-  <si>
-    <t>Dollar Tree, Inc.</t>
-  </si>
-  <si>
-    <t>Domino's Pizza, Inc.</t>
-  </si>
-  <si>
-    <t>Dow Inc.</t>
-  </si>
-  <si>
-    <t>Dropbox, Inc.</t>
-  </si>
-  <si>
-    <t>DuPont de Nemours, Inc.</t>
-  </si>
-  <si>
-    <t>EOG Resources, Inc.</t>
-  </si>
-  <si>
-    <t>EPAM Systems, Inc.</t>
-  </si>
-  <si>
-    <t>EQT Corporation</t>
-  </si>
-  <si>
-    <t>ESGMEX</t>
-  </si>
-  <si>
-    <t>Ecolab Inc.</t>
-  </si>
-  <si>
-    <t>Edwards Lifesciences Corporation</t>
-  </si>
-  <si>
-    <t>El Puerto de Liverpool, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Electronic Arts Inc.</t>
-  </si>
-  <si>
-    <t>Eli Lilly and Company</t>
-  </si>
-  <si>
-    <t>Energy Transfer LP</t>
-  </si>
-  <si>
-    <t>Enphase Energy, Inc.</t>
-  </si>
-  <si>
-    <t>Etsy, Inc.</t>
-  </si>
-  <si>
-    <t>Exxon Mobil Corporation</t>
-  </si>
-  <si>
-    <t>FIBRA Macquarie México</t>
-  </si>
-  <si>
-    <t>FIBRA Prologis</t>
-  </si>
-  <si>
-    <t>Fastly, Inc.</t>
-  </si>
-  <si>
-    <t>FedEx Corporation</t>
-  </si>
-  <si>
-    <t>Fibra Danhos</t>
-  </si>
-  <si>
-    <t>Fibra Inn</t>
-  </si>
-  <si>
-    <t>Fibra Mty, S.A.P.I. de C.V.</t>
-  </si>
-  <si>
-    <t>Fibra Plus</t>
-  </si>
-  <si>
-    <t>Fibra Shop</t>
-  </si>
-  <si>
-    <t>Fibra Terrafina</t>
-  </si>
-  <si>
-    <t>Fibra UNO</t>
-  </si>
-  <si>
-    <t>Fibra Upsite</t>
-  </si>
-  <si>
-    <t>FibraHotel</t>
-  </si>
-  <si>
-    <t>Fideicomiso Irrevocable F/2061 FHipo</t>
-  </si>
-  <si>
-    <t>Fideicomiso Irrevocable No. F/1523</t>
-  </si>
-  <si>
-    <t>Fideicomiso Irrevocable No. F/3277 en Banco Invex, S. A. Institución de Banca Múltiple, INVEX Grupo</t>
-  </si>
-  <si>
-    <t>Fidelity National Information Services, Inc.</t>
-  </si>
-  <si>
-    <t>Financiera Independencia S.A.B. de C.V. SOFOM E.N.R.</t>
-  </si>
-  <si>
-    <t>First Solar, Inc.</t>
-  </si>
-  <si>
-    <t>Fiserv, Inc.</t>
-  </si>
-  <si>
-    <t>Fomento Económico Mexicano, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Fondo Alterna SA de CV F.I.I.D.</t>
-  </si>
-  <si>
-    <t>Foot Locker, Inc.</t>
-  </si>
-  <si>
-    <t>Ford Motor Company</t>
-  </si>
-  <si>
-    <t>Fortinet, Inc.</t>
-  </si>
-  <si>
-    <t>Freeport-McMoRan Inc.</t>
-  </si>
-  <si>
-    <t>Fresenius SE &amp; Co. KGaA</t>
-  </si>
-  <si>
-    <t>Frontera Energy Corporation</t>
-  </si>
-  <si>
-    <t>FuelCell Energy, Inc.</t>
-  </si>
-  <si>
-    <t>GCC, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>GENIUS</t>
-  </si>
-  <si>
-    <t>GMéxico Transportes, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>GSK plc</t>
-  </si>
-  <si>
-    <t>GameStop Corp.</t>
-  </si>
-  <si>
-    <t>Generac Holdings Inc.</t>
-  </si>
-  <si>
-    <t>General Electric Company</t>
-  </si>
-  <si>
-    <t>General Mills, Inc.</t>
-  </si>
-  <si>
-    <t>General Motors Company</t>
-  </si>
-  <si>
-    <t>Genomma Lab Internacional, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Gentera, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Genworth Financial, Inc.</t>
-  </si>
-  <si>
-    <t>Gerdau S.A.</t>
-  </si>
-  <si>
-    <t>Gevo, Inc.</t>
-  </si>
-  <si>
-    <t>Gilead Sciences, Inc.</t>
-  </si>
-  <si>
-    <t>Global Payments Inc.</t>
-  </si>
-  <si>
-    <t>Goldgroup Mining Inc.</t>
-  </si>
-  <si>
-    <t>Gruma, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Aeroméxico, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Aeroportuario del Centro Norte, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Aeroportuario del Pacífico, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Aeroportuario del Sureste, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Grupo Bafar, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Bimbo, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Carso, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Comercial Chedraui, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Elektra, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Famsa, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Financiero Banorte, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Financiero Inbursa, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Gicsa S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Gigante, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Grupo Herdez, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Hotelero Santa Fe, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Industrial Saltillo, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo KUO, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Lala, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Lamosa, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Mexicano de Desarrollo, S.A.B.</t>
-  </si>
-  <si>
-    <t>Grupo Minsa, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo México, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Pochteca, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Posadas, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Profuturo, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Rotoplas S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Sanborns, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Simec, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Sports World, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo TMM, S.A.B.</t>
-  </si>
-  <si>
-    <t>Grupo Televisa, S.A.B.</t>
-  </si>
-  <si>
-    <t>Grupo Traxión, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Grupo Vasconia, S.A.B.</t>
-  </si>
-  <si>
-    <t>HASHICORP INC</t>
-  </si>
-  <si>
-    <t>HCA Healthcare, Inc.</t>
-  </si>
-  <si>
-    <t>HP Inc.</t>
-  </si>
-  <si>
-    <t>Halliburton Company</t>
-  </si>
-  <si>
-    <t>Hertz Global Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Hilton Worldwide Holdings Inc.</t>
-  </si>
-  <si>
-    <t>Honda Motor Co., Ltd.</t>
-  </si>
-  <si>
-    <t>Honeywell International Inc.</t>
-  </si>
-  <si>
-    <t>Hoteles City Express, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>HubSpot, Inc.</t>
-  </si>
-  <si>
-    <t>IDEX Corporation</t>
-  </si>
-  <si>
-    <t>IDEXX Laboratories, Inc.</t>
-  </si>
-  <si>
-    <t>INVEX Controladora, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>IQVIA Holdings Inc.</t>
-  </si>
-  <si>
-    <t>Iberdrola, S.A.</t>
-  </si>
-  <si>
-    <t>Illinois Tool Works Inc.</t>
-  </si>
-  <si>
-    <t>Imperial Brands PLC</t>
-  </si>
-  <si>
-    <t>Industrias Bachoco, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Industrias CH, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Industrias Peñoles, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Ingredion Incorporated</t>
-  </si>
-  <si>
-    <t>Inovio Pharmaceuticals, Inc.</t>
-  </si>
-  <si>
-    <t>Intel Corporation</t>
-  </si>
-  <si>
-    <t>Intercontinental Exchange, Inc.</t>
-  </si>
-  <si>
-    <t>Internacional de Cerámica, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>International Business Machines Corporation</t>
-  </si>
-  <si>
-    <t>Intesa Sanpaolo S.p.A.</t>
-  </si>
-  <si>
-    <t>Intuitive Surgical, Inc.</t>
-  </si>
-  <si>
-    <t>Invitae Corporation</t>
-  </si>
-  <si>
-    <t>JD.com, Inc.</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase &amp; Co.</t>
-  </si>
-  <si>
-    <t>JetBlue Airways Corporation</t>
-  </si>
-  <si>
-    <t>JinkoSolar Holding Co., Ltd.</t>
-  </si>
-  <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
-    <t>Kellogg Company</t>
-  </si>
-  <si>
-    <t>Kimberly-Clark de México, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Kinder Morgan, Inc.</t>
-  </si>
-  <si>
-    <t>Kohl's Corporation</t>
-  </si>
-  <si>
-    <t>Krispy Kreme, Inc.</t>
-  </si>
-  <si>
-    <t>Kyndryl Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>L'Oréal S.A.</t>
-  </si>
-  <si>
-    <t>LVMH Moët Hennessy - Louis Vuitton, Société Européenne</t>
-  </si>
-  <si>
-    <t>La Comer, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Laboratory Corporation of America Holdings</t>
-  </si>
-  <si>
-    <t>Lam Research Corporation</t>
-  </si>
-  <si>
-    <t>Las Vegas Sands Corp.</t>
-  </si>
-  <si>
-    <t>Lemonade, Inc.</t>
-  </si>
-  <si>
-    <t>Liberty Global plc</t>
-  </si>
-  <si>
-    <t>Live Nation Entertainment, Inc.</t>
-  </si>
-  <si>
-    <t>Lloyds Banking Group plc</t>
-  </si>
-  <si>
-    <t>Lowe's Companies, Inc.</t>
-  </si>
-  <si>
-    <t>Lucid Group, Inc.</t>
-  </si>
-  <si>
-    <t>Lumen Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Lumentum Holdings Inc.</t>
-  </si>
-  <si>
-    <t>Luminar Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Lyft, Inc.</t>
-  </si>
-  <si>
-    <t>MGM Resorts International</t>
-  </si>
-  <si>
-    <t>MTU Aero Engines AG</t>
-  </si>
-  <si>
-    <t>Macy's, Inc.</t>
-  </si>
-  <si>
-    <t>Marathon Digital Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Marathon Oil Corporation</t>
-  </si>
-  <si>
-    <t>Marathon Petroleum Corporation</t>
-  </si>
-  <si>
-    <t>Marinus Pharmaceuticals, Inc.</t>
-  </si>
-  <si>
-    <t>Marvell Technology, Inc.</t>
-  </si>
-  <si>
-    <t>Mastercard Incorporated</t>
-  </si>
-  <si>
-    <t>Mattel, Inc.</t>
-  </si>
-  <si>
-    <t>Matterport, Inc.</t>
-  </si>
-  <si>
-    <t>McDonald's Corporation</t>
-  </si>
-  <si>
-    <t>McKesson Corporation</t>
-  </si>
-  <si>
-    <t>Medical Properties Trust, Inc.</t>
-  </si>
-  <si>
-    <t>Megacable Holdings, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>MercadoLibre, Inc.</t>
-  </si>
-  <si>
-    <t>Merck &amp; Co., Inc.</t>
-  </si>
-  <si>
-    <t>Meta Platforms, Inc.</t>
-  </si>
-  <si>
-    <t>MicroStrategy Incorporated</t>
-  </si>
-  <si>
-    <t>Micron Technology, Inc.</t>
-  </si>
-  <si>
-    <t>Microsoft Corporation</t>
-  </si>
-  <si>
-    <t>Minera Frisco, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Moderna, Inc.</t>
-  </si>
-  <si>
-    <t>Monex, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>MongoDB, Inc.</t>
-  </si>
-  <si>
-    <t>Monster Beverage Corporation</t>
-  </si>
-  <si>
-    <t>Morgan Stanley</t>
-  </si>
-  <si>
-    <t>Médica Sur, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>NIKE, Inc.</t>
-  </si>
-  <si>
-    <t>NOW Inc.</t>
-  </si>
-  <si>
-    <t>NVIDIA Corporation</t>
-  </si>
-  <si>
-    <t>Nemak, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Nestlé S.A.</t>
-  </si>
-  <si>
-    <t>NetEase, Inc.</t>
-  </si>
-  <si>
-    <t>Netflix, Inc.</t>
-  </si>
-  <si>
-    <t>New Oriental Education &amp; Technology Group Inc.</t>
-  </si>
-  <si>
-    <t>Newmont Corporation</t>
-  </si>
-  <si>
-    <t>NextEra Energy, Inc.</t>
-  </si>
-  <si>
-    <t>Nikola Corporation</t>
-  </si>
-  <si>
-    <t>Nokia Oyj</t>
-  </si>
-  <si>
-    <t>Nomad Foods Limited</t>
-  </si>
-  <si>
-    <t>Nordstrom, Inc.</t>
-  </si>
-  <si>
-    <t>Northrop Grumman Corporation</t>
-  </si>
-  <si>
-    <t>Norwegian Cruise Line Holdings Ltd.</t>
-  </si>
-  <si>
-    <t>Novavax, Inc.</t>
-  </si>
-  <si>
-    <t>Novo Nordisk A/S</t>
-  </si>
-  <si>
-    <t>ON Semiconductor Corporation</t>
-  </si>
-  <si>
-    <t>Obrascón Huarte Lain, S.A.</t>
-  </si>
-  <si>
-    <t>Occidental Petroleum Corporation</t>
-  </si>
-  <si>
-    <t>Ocugen, Inc.</t>
-  </si>
-  <si>
-    <t>Operadora de Sites Mexicanos, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Oracle Corporation</t>
-  </si>
-  <si>
-    <t>Orbia Advance Corporation, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Organización Cultiba, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Organización Soriana, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Otis Worldwide Corporation</t>
-  </si>
-  <si>
-    <t>PBF Energy Inc.</t>
-  </si>
-  <si>
-    <t>Palo Alto Networks, Inc.</t>
-  </si>
-  <si>
-    <t>Paramount Global</t>
-  </si>
-  <si>
-    <t>Parker-Hannifin Corporation</t>
-  </si>
-  <si>
-    <t>PayPal Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Peloton Interactive, Inc.</t>
-  </si>
-  <si>
-    <t>PepsiCo, Inc.</t>
-  </si>
-  <si>
-    <t>PetroChina Company Limited</t>
-  </si>
-  <si>
-    <t>Petróleo Brasileiro S.A. - Petrobras</t>
-  </si>
-  <si>
-    <t>Pfizer Inc.</t>
-  </si>
-  <si>
-    <t>Philip Morris International Inc.</t>
-  </si>
-  <si>
-    <t>Ping An Insurance (Group) Company of China, Ltd.</t>
-  </si>
-  <si>
-    <t>Pinterest, Inc.</t>
-  </si>
-  <si>
-    <t>Pioneer Natural Resources Company</t>
-  </si>
-  <si>
-    <t>Plug Power Inc.</t>
-  </si>
-  <si>
-    <t>Prologis, Inc.</t>
-  </si>
-  <si>
-    <t>Promotora Ambiental, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Promotora y Operadora de Infraestructura, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Proyectos Inmobiliarios Carne Mart S.A. De C.V</t>
-  </si>
-  <si>
-    <t>PulteGroup, Inc.</t>
-  </si>
-  <si>
-    <t>QUALCOMM Incorporated</t>
-  </si>
-  <si>
-    <t>Qualys, Inc.</t>
-  </si>
-  <si>
-    <t>QuantumScape Corporation</t>
-  </si>
-  <si>
-    <t>Quálitas Controladora, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>RLH Properties, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Realty Income Corporation</t>
-  </si>
-  <si>
-    <t>Regeneron Pharmaceuticals, Inc.</t>
-  </si>
-  <si>
-    <t>Regional S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Republic Services, Inc.</t>
-  </si>
-  <si>
-    <t>Revlon, Inc.</t>
-  </si>
-  <si>
-    <t>Revolve Group, Inc.</t>
-  </si>
-  <si>
-    <t>Rio Tinto Group</t>
-  </si>
-  <si>
-    <t>Riot Blockchain, Inc.</t>
-  </si>
-  <si>
-    <t>Rivian Automotive, Inc.</t>
-  </si>
-  <si>
-    <t>Roblox Corporation</t>
-  </si>
-  <si>
-    <t>Roche Holding AG</t>
-  </si>
-  <si>
-    <t>Roku, Inc.</t>
-  </si>
-  <si>
-    <t>Ross Stores, Inc.</t>
-  </si>
-  <si>
-    <t>Royal Caribbean Cruises Ltd.</t>
-  </si>
-  <si>
-    <t>S&amp;P Global Inc.</t>
-  </si>
-  <si>
-    <t>SAP SE</t>
-  </si>
-  <si>
-    <t>Salesforce, Inc.</t>
-  </si>
-  <si>
-    <t>Samsung Electronics Co., Ltd.</t>
-  </si>
-  <si>
-    <t>Sanofi</t>
-  </si>
-  <si>
-    <t>Schlumberger Limited</t>
-  </si>
-  <si>
-    <t>Sempra</t>
-  </si>
-  <si>
-    <t>Service Corporation International</t>
-  </si>
-  <si>
-    <t>ServiceNow, Inc.</t>
-  </si>
-  <si>
-    <t>ShockWave Medical, Inc.</t>
-  </si>
-  <si>
-    <t>Silvergate Capital Corporation</t>
-  </si>
-  <si>
-    <t>Simon Property Group, Inc.</t>
-  </si>
-  <si>
-    <t>Skillz Inc.</t>
-  </si>
-  <si>
-    <t>SmileDirectClub, Inc.</t>
-  </si>
-  <si>
-    <t>Snap Inc.</t>
-  </si>
-  <si>
-    <t>Snowflake Inc.</t>
-  </si>
-  <si>
-    <t>SoFi Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Société Générale Société anonyme</t>
-  </si>
-  <si>
-    <t>Southern Copper Corporation</t>
-  </si>
-  <si>
-    <t>Splunk Inc.</t>
-  </si>
-  <si>
-    <t>Starbucks Corporation</t>
-  </si>
-  <si>
-    <t>Starwood Property Trust, Inc.</t>
-  </si>
-  <si>
-    <t>Steel Dynamics, Inc.</t>
-  </si>
-  <si>
-    <t>Sunrun Inc.</t>
-  </si>
-  <si>
-    <t>T-Mobile US, Inc.</t>
-  </si>
-  <si>
-    <t>TV Azteca, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Taiwan Semiconductor Manufacturing Company Limited</t>
-  </si>
-  <si>
-    <t>Target Corporation</t>
-  </si>
-  <si>
-    <t>Teladoc Health, Inc.</t>
-  </si>
-  <si>
-    <t>Tencent Holdings Limited</t>
-  </si>
-  <si>
-    <t>Teradyne, Inc.</t>
-  </si>
-  <si>
-    <t>Tesla, Inc.</t>
-  </si>
-  <si>
-    <t>Teva Pharmaceutical Industries Limited</t>
-  </si>
-  <si>
-    <t>The AES Corporation</t>
-  </si>
-  <si>
-    <t>The Bank of Nova Scotia</t>
-  </si>
-  <si>
-    <t>The Boeing Company</t>
-  </si>
-  <si>
-    <t>The Boston Beer Company, Inc.</t>
-  </si>
-  <si>
-    <t>The Chemours Company</t>
-  </si>
-  <si>
-    <t>The Clorox Company</t>
-  </si>
-  <si>
-    <t>The Coca-Cola Company</t>
-  </si>
-  <si>
-    <t>The Estée Lauder Companies Inc.</t>
-  </si>
-  <si>
-    <t>The GEO Group, Inc.</t>
-  </si>
-  <si>
-    <t>The Gap, Inc.</t>
-  </si>
-  <si>
-    <t>The Goldman Sachs Group, Inc.</t>
-  </si>
-  <si>
-    <t>The Goodyear Tire &amp; Rubber Company</t>
-  </si>
-  <si>
-    <t>The Home Depot, Inc.</t>
-  </si>
-  <si>
-    <t>The Kraft Heinz Company</t>
-  </si>
-  <si>
-    <t>The Mosaic Company</t>
-  </si>
-  <si>
-    <t>The Procter &amp; Gamble Company</t>
-  </si>
-  <si>
-    <t>The TJX Companies, Inc.</t>
-  </si>
-  <si>
-    <t>The Trade Desk, Inc.</t>
-  </si>
-  <si>
-    <t>The Walt Disney Company</t>
-  </si>
-  <si>
-    <t>The Western Union Company</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific Inc.</t>
-  </si>
-  <si>
-    <t>Truist Financial Corporation</t>
-  </si>
-  <si>
-    <t>Twilio Inc.</t>
-  </si>
-  <si>
-    <t>Twitter, Inc.</t>
-  </si>
-  <si>
-    <t>Tyson Foods, Inc.</t>
-  </si>
-  <si>
-    <t>UDEMY INC</t>
-  </si>
-  <si>
-    <t>Uber Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Ubisoft Entertainment SA</t>
-  </si>
-  <si>
-    <t>Ulta Beauty, Inc.</t>
-  </si>
-  <si>
-    <t>Under Armour, Inc.</t>
-  </si>
-  <si>
-    <t>Unifin Financiera, S. A. B. de C. V.</t>
-  </si>
-  <si>
-    <t>Unilever PLC</t>
-  </si>
-  <si>
-    <t>Union Pacific Corporation</t>
-  </si>
-  <si>
-    <t>United Airlines Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>United States Steel Corporation</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Incorporated</t>
-  </si>
-  <si>
-    <t>Unity Software Inc.</t>
-  </si>
-  <si>
-    <t>Upstart Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>VICI Properties Inc.</t>
-  </si>
-  <si>
-    <t>VMware, Inc.</t>
-  </si>
-  <si>
-    <t>Vale S.A.</t>
-  </si>
-  <si>
-    <t>Valero Energy Corporation</t>
-  </si>
-  <si>
-    <t>Value Grupo Financiero, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc.</t>
-  </si>
-  <si>
-    <t>Vertex Pharmaceuticals Incorporated</t>
-  </si>
-  <si>
-    <t>Vinte Viviendas Integrales, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Vipshop Holdings Limited</t>
-  </si>
-  <si>
-    <t>Virgin Galactic Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Visa Inc.</t>
-  </si>
-  <si>
-    <t>Vista Energy, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Vitro, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Volkswagen AG</t>
-  </si>
-  <si>
-    <t>Vroom, Inc.</t>
-  </si>
-  <si>
-    <t>Wal-Mart de México, S.A.B. de C.V.</t>
-  </si>
-  <si>
-    <t>Walgreens Boots Alliance, Inc.</t>
-  </si>
-  <si>
-    <t>Walmart Inc.</t>
-  </si>
-  <si>
-    <t>Warner Bros. Discovery, Inc.</t>
-  </si>
-  <si>
-    <t>WeWork Inc.</t>
-  </si>
-  <si>
-    <t>Wells Fargo &amp; Company</t>
-  </si>
-  <si>
-    <t>Weyerhaeuser Company</t>
-  </si>
-  <si>
-    <t>Williams-Sonoma, Inc.</t>
-  </si>
-  <si>
-    <t>Workhorse Group Inc.</t>
-  </si>
-  <si>
-    <t>Wynn Resorts, Limited</t>
-  </si>
-  <si>
-    <t>Xcel Energy Inc.</t>
-  </si>
-  <si>
-    <t>YPF Sociedad Anónima</t>
-  </si>
-  <si>
-    <t>Yum China Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Zendesk, Inc.</t>
-  </si>
-  <si>
-    <t>Zimmer Biomet Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Zoom Video Communications, Inc.</t>
-  </si>
-  <si>
-    <t>bluebird bio, Inc.</t>
-  </si>
-  <si>
-    <t>eBay Inc.</t>
-  </si>
-  <si>
-    <t>eXp World Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>fuboTV Inc.</t>
   </si>
 </sst>
 </file>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3641,2796 +3641,2796 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B232" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B233" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B234" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B235" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B236" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B237" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B238" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B239" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B240" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B241" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B244" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B245" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B246" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B247" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B248" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B251" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B252" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B253" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B256" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B257" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B258" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B259" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B260" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B261" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B262" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B263" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B264" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B265" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B267" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B268" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B269" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B270" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B271" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B272" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B273" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B274" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B275" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B276" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B277" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B279" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B280" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B281" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B282" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B283" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B284" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B285" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B286" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B287" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B289" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B291" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B292" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B293" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B294" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B295" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B296" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B297" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B298" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B299" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B300" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B301" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B302" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B303" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B304" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B305" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B306" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B307" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B308" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B309" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B310" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B311" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B312" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B313" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B314" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B315" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B316" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B317" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B318" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B319" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B320" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B321" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B322" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B323" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B324" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B325" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B326" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B327" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B328" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B329" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B330" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B331" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B332" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B333" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B334" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B335" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B336" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B337" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B338" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B339" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B340" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B341" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B342" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B343" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B344" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B345" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B346" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B347" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B348" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B349" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B350" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B351" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B352" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B353" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B354" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B355" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B356" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B357" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B358" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B359" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B360" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B361" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B362" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B363" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B364" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B365" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B366" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B367" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B368" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B369" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B370" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B371" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B372" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B373" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B374" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B375" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B376" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B377" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B378" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B379" t="s">
         <v>880</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B380" t="s">
         <v>881</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B381" t="s">
         <v>882</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B382" t="s">
         <v>883</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B383" t="s">
         <v>884</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B384" t="s">
         <v>885</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B385" t="s">
         <v>886</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B386" t="s">
         <v>887</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B387" t="s">
         <v>888</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B388" t="s">
         <v>889</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B389" t="s">
         <v>890</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B390" t="s">
         <v>891</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B391" t="s">
         <v>892</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B392" t="s">
         <v>893</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B393" t="s">
         <v>894</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B394" t="s">
         <v>895</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B395" t="s">
         <v>896</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B396" t="s">
         <v>897</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B397" t="s">
         <v>898</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B398" t="s">
         <v>899</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B399" t="s">
         <v>900</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B400" t="s">
         <v>901</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B401" t="s">
         <v>902</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B402" t="s">
         <v>903</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B403" t="s">
         <v>904</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B404" t="s">
         <v>905</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B405" t="s">
         <v>906</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B406" t="s">
         <v>907</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B407" t="s">
         <v>908</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B408" t="s">
         <v>909</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B409" t="s">
         <v>910</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B410" t="s">
         <v>911</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B411" t="s">
         <v>912</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B412" t="s">
         <v>913</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B413" t="s">
         <v>914</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B414" t="s">
         <v>915</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B415" t="s">
         <v>916</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B416" t="s">
         <v>917</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B417" t="s">
         <v>918</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B418" t="s">
         <v>919</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B419" t="s">
         <v>920</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B420" t="s">
         <v>921</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B421" t="s">
         <v>922</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B422" t="s">
         <v>923</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B423" t="s">
         <v>924</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B424" t="s">
         <v>925</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B425" t="s">
         <v>926</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B426" t="s">
         <v>927</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B427" t="s">
         <v>928</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B428" t="s">
         <v>929</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B429" t="s">
         <v>930</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B430" t="s">
         <v>931</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B431" t="s">
         <v>932</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B432" t="s">
         <v>933</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B433" t="s">
         <v>934</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B434" t="s">
         <v>935</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B435" t="s">
         <v>936</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B436" t="s">
         <v>937</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B437" t="s">
         <v>938</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B438" t="s">
         <v>939</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B439" t="s">
         <v>940</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B440" t="s">
         <v>941</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B441" t="s">
         <v>942</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B442" t="s">
         <v>943</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B443" t="s">
         <v>944</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B444" t="s">
         <v>945</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B445" t="s">
         <v>946</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B446" t="s">
         <v>947</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B447" t="s">
         <v>948</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B448" t="s">
         <v>949</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B449" t="s">
         <v>950</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B450" t="s">
         <v>951</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B451" t="s">
         <v>952</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B452" t="s">
         <v>953</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B453" t="s">
         <v>954</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B454" t="s">
         <v>955</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B455" t="s">
         <v>956</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B456" t="s">
         <v>957</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B457" t="s">
         <v>958</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B458" t="s">
         <v>959</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B459" t="s">
         <v>960</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B460" t="s">
         <v>961</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B461" t="s">
         <v>962</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B462" t="s">
         <v>963</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B463" t="s">
         <v>964</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B464" t="s">
         <v>965</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B465" t="s">
         <v>966</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B466" t="s">
         <v>967</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B467" t="s">
         <v>968</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B468" t="s">
         <v>969</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B469" t="s">
         <v>970</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B470" t="s">
         <v>971</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B471" t="s">
         <v>972</v>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B472" t="s">
         <v>973</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B473" t="s">
         <v>974</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B474" t="s">
         <v>975</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B475" t="s">
         <v>976</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B476" t="s">
         <v>977</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B477" t="s">
         <v>978</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B478" t="s">
         <v>979</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B479" t="s">
         <v>980</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B480" t="s">
         <v>981</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B481" t="s">
         <v>982</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B482" t="s">
         <v>983</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B483" t="s">
         <v>984</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B484" t="s">
         <v>985</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B485" t="s">
         <v>986</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B486" t="s">
         <v>987</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B487" t="s">
         <v>988</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B488" t="s">
         <v>989</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B489" t="s">
         <v>990</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B490" t="s">
         <v>991</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B491" t="s">
         <v>992</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B492" t="s">
         <v>993</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B493" t="s">
         <v>994</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B494" t="s">
         <v>995</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B495" t="s">
         <v>996</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B496" t="s">
         <v>997</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B497" t="s">
         <v>998</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B498" t="s">
         <v>999</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B499" t="s">
         <v>1000</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B500" t="s">
         <v>1001</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B501" t="s">
         <v>1002</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B502" t="s">
         <v>1003</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B503" t="s">
         <v>1004</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B504" t="s">
         <v>1005</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B505" t="s">
         <v>1006</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B506" t="s">
         <v>1007</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B507" t="s">
         <v>1008</v>
